--- a/biology/Zoologie/Hemicloeina/Hemicloeina.xlsx
+++ b/biology/Zoologie/Hemicloeina/Hemicloeina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemicloeina est un genre d'araignées aranéomorphes de la famille des Trachycosmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemicloeina est un genre d'araignées aranéomorphes de la famille des Trachycosmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie et en Papouasie-Nouvelle-Guinée en Nouvelle-Guinée occidentale[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie et en Papouasie-Nouvelle-Guinée en Nouvelle-Guinée occidentale,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 7 à 12 mm et les femelles de 9 à 18 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 7 à 12 mm et les femelles de 9 à 18 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 22.5, 15/01/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 22.5, 15/01/2022) :
 Hemicloeina bluff Platnick, 2002
 Hemicloeina bulolo Platnick, 2002
 Hemicloeina gayndah Platnick, 2002
@@ -612,9 +630,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1893 dans les Drassidae. Il est placé dans les Trochanteriidae par Platnick en 2002[2] puis dans les Trachycosmidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1893 dans les Drassidae. Il est placé dans les Trochanteriidae par Platnick en 2002 puis dans les Trachycosmidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1893 : Histoire naturelle des araignées. Paris, vol. 1, p. 257-488 (texte intégral).</t>
         </is>
